--- a/Account.xlsx
+++ b/Account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjubisht\Documents\GitHub\TestingAugust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E89B40E-E67C-44B9-B55E-4D8D8BCD4952}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4F731B-106D-47D4-B06B-595394FC1A33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,13 +313,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J40" totalsRowShown="0">
-  <autoFilter ref="A1:J40" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -623,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +693,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -713,7 +707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -727,7 +721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -741,7 +735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>29</v>
       </c>
@@ -752,7 +746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>32</v>
       </c>
@@ -763,7 +757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>35</v>
       </c>
@@ -774,7 +768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>38</v>
       </c>
@@ -785,7 +779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>41</v>
       </c>
@@ -796,7 +790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>44</v>
       </c>
@@ -833,7 +827,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>17</v>
       </c>
@@ -847,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>21</v>
       </c>
@@ -861,7 +855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>25</v>
       </c>
@@ -875,7 +869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>29</v>
       </c>
@@ -886,7 +880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>32</v>
       </c>
@@ -897,7 +891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>35</v>
       </c>
@@ -934,7 +928,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>18</v>
       </c>
@@ -971,7 +965,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>17</v>
       </c>
@@ -985,7 +979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>21</v>
       </c>
@@ -999,7 +993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>25</v>
       </c>
@@ -1013,7 +1007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>29</v>
       </c>
@@ -1024,7 +1018,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>32</v>
       </c>
@@ -1035,7 +1029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>35</v>
       </c>
@@ -1046,7 +1040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>38</v>
       </c>
@@ -1057,7 +1051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>41</v>
       </c>
@@ -1068,7 +1062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>44</v>
       </c>
@@ -1105,7 +1099,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>17</v>
       </c>
@@ -1119,7 +1113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>21</v>
       </c>
@@ -1133,7 +1127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>29</v>
       </c>
@@ -1158,7 +1152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>32</v>
       </c>
@@ -1169,7 +1163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>35</v>
       </c>
@@ -1206,7 +1200,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>18</v>
       </c>
@@ -1217,7 +1211,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>22</v>
       </c>
